--- a/tests/integration/data/Renderer006-ForEach-Continue-stripped-table/expected.xlsx
+++ b/tests/integration/data/Renderer006-ForEach-Continue-stripped-table/expected.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E070D28-3EF8-4C18-8119-039473F480AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24580" windowHeight="14620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -92,46 +91,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <color theme="0" tint="-0.0499893185216834"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="22"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="16"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <color theme="0" tint="-0.0499893185216834"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="16"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="7">
@@ -149,25 +148,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,26 +543,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="3" max="4" width="7.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="4" width="7.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="60.08984375" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" customWidth="1"/>
-    <col min="9" max="10" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="60.1640625" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="30" customHeight="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -574,8 +574,10 @@
       <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -595,7 +597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -615,7 +617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
@@ -635,7 +637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -655,7 +657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
@@ -675,7 +677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -695,7 +697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
@@ -715,27 +717,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="0" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>